--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsk\OneDrive\Bureaublad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GithubRepos\C2Eindopdracht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D3BBE2-7F3F-4954-A0DF-EABA3504FB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7EBE43-C11C-48E7-986C-A9BF7ADAEEA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E24ECFDA-0AE2-4F00-ABAB-F9B5446445CB}"/>
+    <workbookView xWindow="8250" yWindow="1620" windowWidth="27150" windowHeight="14175" xr2:uid="{E24ECFDA-0AE2-4F00-ABAB-F9B5446445CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -606,7 +606,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -619,7 +619,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -632,7 +632,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
